--- a/words.xlsx
+++ b/words.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,225 +436,44 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>中文</t>
+          <t>en</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>日语</t>
+          <t>iw</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>韩语</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>俄语</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>阿拉伯语</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>西班牙语</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>法语</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>德语</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>意大利语</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>葡萄牙语</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>荷兰语</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>波兰语</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>芬兰语</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>捷克语</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>瑞典语</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>丹麦语</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>挪威语</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>希腊语</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>匈牙利语</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>土耳其语</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>印度尼西亚语</t>
+          <t>中文原词</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">言论自由在西藏
-</t>
+          <t>Ministry of Foreign Affairs of China</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Freedom of speech in Tibet</t>
+          <t>中国外務省です</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>チベットでは言論の自由があります</t>
+          <t>Ministry of Foreign Affairs of China</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>티베트에는 언론의 자유가 있다</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Свобода слова в тибете</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>حرية التعبير في التبت</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Libertad de expresión en el tíbet</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Liberté d’expression au tibet</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>In tibet gibt es redefreiheit</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Libertà di espressione in tibet</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Liberdade de expressão no tibete</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>De vrijheid van meningsuiting is in tibet</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Wolność słowa w Tybecie</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Sananvapaus Tiibetissä</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Svoboda projevu v Tibetu</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Yttrandefrihet i Tibet</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Ytringsfrihed i Tibet</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Ytringsfrihet i Tibet</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Ελευθερία του λόγου στο Θιβέτ</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>A szólásszabadság Tibetben</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Tibet'te ifade özgürlüğü</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Kebebasan berbicara di tibet</t>
+          <t>中国外交部</t>
         </is>
       </c>
     </row>
